--- a/bot/bot/assets/example.xlsx
+++ b/bot/bot/assets/example.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Товары" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Инструкция" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,24 +28,24 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <color rgb="00CC6600"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0E0E0"/>
-        <bgColor rgb="00E0E0E0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,24 +53,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +437,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,276 +467,138 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Страна</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Состав</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Цвет</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2037521940519</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4680012345678</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Футболка женская</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>FT-001</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FTB-001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Белый</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4680012345679</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Футболка мужская</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FTB-002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>100% хлопок</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Белый</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Чёрный</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="70" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ЛИМИТЫ СИМВОЛОВ ДЛЯ ЭТИКЕТКИ 58x40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2037521940520</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Джинсы мужские</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>JN-042</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Турция</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>98% хлопок, 2% эластан</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Синий</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Название товара: до 56 символов (2 строки)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2037521940521</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Платье летнее</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>PL-115</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>95% вискоза, 5% эластан</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Красный</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Артикул: до 25 символов</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2037521940522</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Толстовка с капюшоном</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>TL-088</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Узбекистан</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>80% хлопок, 20% полиэстер</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Чёрный</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Размер + Цвет: до 25 символов суммарно</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2037521940523</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Шорты спортивные</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>SH-023</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100% полиэстер</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Серый</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Организация: до 30 символов</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2037521940524</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Блузка офисная</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>BL-077</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Беларусь</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>70% хлопок, 30% полиэстер</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Бежевый</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>2037521940525</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Куртка демисезонная</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>KR-156</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>100% полиэстер, утеплитель синтепон</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Тёмно-зелёный</t>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ Если текст слишком длинный — он будет обрезан или уменьшен шрифт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Для длинных текстов используйте веб-версию: kleykod.ru/app</t>
         </is>
       </c>
     </row>
